--- a/Player Database/Ronaldo.xlsx
+++ b/Player Database/Ronaldo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="27">
   <si>
     <t xml:space="preserve">TEAM</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t xml:space="preserve">WFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substitute</t>
   </si>
   <si>
     <t xml:space="preserve">Sup Cup</t>
@@ -321,8 +318,8 @@
   </sheetPr>
   <dimension ref="A1:I792"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A445" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D465" activeCellId="0" sqref="D465 D467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -330,7 +327,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="9" min="5" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
   </cols>
@@ -12802,8 +12799,8 @@
       <c r="C465" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D465" s="2" t="s">
-        <v>24</v>
+      <c r="D465" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E465" s="2" t="n">
         <v>1</v>
@@ -12856,8 +12853,8 @@
       <c r="C467" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D467" s="2" t="s">
-        <v>24</v>
+      <c r="D467" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E467" s="2" t="n">
         <v>0</v>
@@ -12908,7 +12905,7 @@
         <v>40769</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D469" s="2" t="n">
         <v>90</v>
@@ -12935,7 +12932,7 @@
         <v>40772</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D470" s="2" t="n">
         <v>90</v>
@@ -14900,7 +14897,7 @@
         <v>41144</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D543" s="2" t="n">
         <v>90</v>
@@ -14954,7 +14951,7 @@
         <v>41150</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D545" s="2" t="n">
         <v>90</v>
@@ -16570,7 +16567,7 @@
         <v>41487</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D605" s="2" t="n">
         <v>45</v>
@@ -16597,7 +16594,7 @@
         <v>41489</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D606" s="2" t="n">
         <v>59</v>
@@ -16624,7 +16621,7 @@
         <v>41493</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D607" s="2" t="n">
         <v>90</v>
@@ -18236,7 +18233,7 @@
         <v>41846</v>
       </c>
       <c r="C667" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D667" s="4" t="n">
         <v>0</v>
@@ -18255,7 +18252,7 @@
         <v>41849</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D668" s="4" t="n">
         <v>0</v>
@@ -18274,7 +18271,7 @@
         <v>41853</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D669" s="4" t="n">
         <v>17</v>
@@ -18301,7 +18298,7 @@
         <v>41863</v>
       </c>
       <c r="C670" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D670" s="4" t="n">
         <v>90</v>
@@ -18328,7 +18325,7 @@
         <v>41870</v>
       </c>
       <c r="C671" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D671" s="4" t="n">
         <v>45</v>
@@ -18355,7 +18352,7 @@
         <v>41873</v>
       </c>
       <c r="C672" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D672" s="4" t="n">
         <v>45</v>
@@ -19811,7 +19808,7 @@
         <v>42203</v>
       </c>
       <c r="C728" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D728" s="4" t="n">
         <v>45</v>
@@ -19837,7 +19834,7 @@
         <v>42209</v>
       </c>
       <c r="C729" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D729" s="4" t="n">
         <v>90</v>
@@ -19863,7 +19860,7 @@
         <v>42212</v>
       </c>
       <c r="C730" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D730" s="4" t="n">
         <v>90</v>
@@ -19889,7 +19886,7 @@
         <v>42215</v>
       </c>
       <c r="C731" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D731" s="4" t="n">
         <v>90</v>
@@ -21512,7 +21509,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="D465 D467 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21538,7 +21535,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="D465 D467 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
